--- a/Project_planning.xlsx
+++ b/Project_planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pieterverhamme/Documents/GitHub/GIP-and-ECS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622ACB29-194F-C944-ABF8-F87B53BF5D0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8857AC2F-0A54-B044-9704-DED22AA31208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{A4533540-A90C-4C4D-BECB-6FE35FBE5BD1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Proposal project planning </t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Make model of the crane more realistic. Closed loop control. Include errors of motors/sensors if necessary (only for simulation).</t>
+  </si>
+  <si>
+    <t>Robot goal</t>
+  </si>
+  <si>
+    <t>Move object (point mass) from known point A to known point/region B with swinging motion.</t>
+  </si>
+  <si>
+    <t>Move specific object (p.e. crates) from known point A to known point/region B without breaking the object.</t>
+  </si>
+  <si>
+    <t>Move specific object from multiple possible points to multiple different destinations safely.</t>
   </si>
 </sst>
 </file>
@@ -175,12 +187,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9091E33F-E00A-F64A-A601-4282C20B96F5}" name="Table1" displayName="Table1" ref="A3:C18" totalsRowShown="0">
-  <autoFilter ref="A3:C18" xr:uid="{2CBA07B8-3AEE-3249-8EAD-B9DA8313297B}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9091E33F-E00A-F64A-A601-4282C20B96F5}" name="Table1" displayName="Table1" ref="A3:D18" totalsRowShown="0">
+  <autoFilter ref="A3:D18" xr:uid="{2CBA07B8-3AEE-3249-8EAD-B9DA8313297B}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C42D89A0-5AA1-EA4D-976A-52D9E3BC43B8}" name="Part "/>
     <tableColumn id="2" xr3:uid="{6638779B-4CF1-D14D-94E8-938EF9EBAE27}" name="Weeks"/>
     <tableColumn id="3" xr3:uid="{7F6F61A7-307D-5C4F-9FAC-DCA77C5BA505}" name="Project work"/>
+    <tableColumn id="4" xr3:uid="{A7912492-7932-5241-A6F1-30666FDBFA9B}" name="Robot goal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -483,24 +496,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BB6713-11F1-3546-8C6C-83EB979ADCC3}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="86.1640625" customWidth="1"/>
+    <col min="3" max="3" width="102.5" customWidth="1"/>
+    <col min="4" max="4" width="87.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -510,8 +524,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -521,28 +538,31 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -552,28 +572,31 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>10</v>
@@ -582,12 +605,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>3</v>
       </c>
@@ -596,6 +619,9 @@
       </c>
       <c r="C16" t="s">
         <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
